--- a/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/入库单SKU导入模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/入库单SKU导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="28800" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="入库单SKU导入表" sheetId="1" r:id="rId1"/>
@@ -16,19 +16,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>入库单号</t>
+    <t>入库单号
+（必填）</t>
   </si>
   <si>
-    <t>SKU编码</t>
+    <t>SKU编码
+（必填）</t>
   </si>
   <si>
-    <t>申报数量</t>
+    <t>申报数量
+（必填）</t>
   </si>
   <si>
-    <t>原SKU编码</t>
+    <t>原SKU编码
+（非必填）</t>
   </si>
   <si>
-    <t>备注</t>
+    <t>备注
+（非必填）</t>
   </si>
 </sst>
 </file>
@@ -1033,7 +1038,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>

--- a/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/入库单SKU导入模板.xlsx
+++ b/business-center/wms-center/wms-service/wms-business-putinstorage/src/main/resources/template/入库单SKU导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11850"/>
+    <workbookView windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="入库单SKU导入表" sheetId="1" r:id="rId1"/>
@@ -14,26 +14,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>入库单号
-（必填）</t>
+    <t>SKU编码</t>
   </si>
   <si>
-    <t>SKU编码
-（必填）</t>
+    <t>申报数量</t>
   </si>
   <si>
-    <t>申报数量
-（必填）</t>
+    <t>原SKU编码</t>
   </si>
   <si>
-    <t>原SKU编码
-（非必填）</t>
-  </si>
-  <si>
-    <t>备注
-（非必填）</t>
+    <t>备注</t>
   </si>
 </sst>
 </file>
@@ -1035,71 +1027,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A1" sqref="A$1:A$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="2" width="12.3666666666667" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="4" max="4" width="15.725" customWidth="1"/>
-    <col min="5" max="5" width="11.0916666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.3666666666667" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="15.725" customWidth="1"/>
+    <col min="4" max="4" width="11.0916666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" customHeight="1" spans="1:5">
+    <row r="1" ht="33" customHeight="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:4">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:4">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
